--- a/src/test/resources/Credentials.xlsx
+++ b/src/test/resources/Credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents for Study\Automation class\JavaPrograms\APIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD00654-E51C-4D71-B749-BB706D1A129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F64D05-E89B-4F7A-8C7F-8626075CDE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -33,32 +33,28 @@
     <t>password</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>avijeetjana26@gmail.com</t>
   </si>
   <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>password2</t>
-  </si>
-  <si>
-    <t>admin22</t>
-  </si>
-  <si>
-    <t>admin33</t>
-  </si>
-  <si>
-    <t>password22</t>
+    <t>Password@2024#1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +77,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,15 +365,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -394,36 +394,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
